--- a/Mercedes-benz/Mercedes_benz_Test-Case.xlsx
+++ b/Mercedes-benz/Mercedes_benz_Test-Case.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Desktop\Mercedes-benz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B9CDC-08B0-4BC2-8A4F-63356DE3F32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89047FEA-864F-46E5-8C6E-29CEA1A6A3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Bug_Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Claim" sheetId="3" r:id="rId3"/>
+    <sheet name="Closed_Bug_Report" sheetId="4" r:id="rId3"/>
+    <sheet name="Claim" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$M$5:$M$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Claim!$M$5:$M$68</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="332">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
   <si>
     <t>Project :-</t>
-  </si>
-  <si>
-    <t>Luminious_Mpartner</t>
   </si>
   <si>
     <t>Lead_Devp. :-</t>
@@ -1529,6 +1527,196 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ranjeet</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Mecedes Benz</t>
+  </si>
+  <si>
+    <t>No need to change</t>
+  </si>
+  <si>
+    <t>we are using claim manager detail as claim manager name</t>
+  </si>
+  <si>
+    <t>Server Issue max_file_upload limit should be increase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sugg. :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If possible try to fix this</t>
+    </r>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validation :-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Instead of Warranty manager contact No. It is showing Dealer Contact No. Length is less than 10 Char.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Service request date and work order date is accepting Invalid Data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current Odometer Reading is showing NAN, For entering Odometer reading dealer need to delete NAN first</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Labour Information :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is allingment Issue in Rejection Remark drop down menu.</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Add Claim
+2) Creating New Labour Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compatibility Issue :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepting Surveyor Contact No. Less than 10 digit in Internet Explorer</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Click Claim
+2) Open any Claim
+3) Click on edit</t>
+  </si>
+  <si>
+    <t>1) Click Claim
+2) Open any Claim</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without Clicking on Edit Manager is able to Edit Data</t>
+    </r>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1694,6 +1882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,7 +2005,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1829,9 +2023,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1855,47 +2046,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1917,6 +2069,70 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2236,7 +2452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DEB87A-C4C8-4A2C-AA7E-BB8C88E57263}">
   <dimension ref="E9:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2249,67 +2467,67 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="I10" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18">
+        <v>63</v>
+      </c>
+      <c r="G11" s="18">
+        <v>63</v>
+      </c>
+      <c r="H11" s="18">
+        <v>55</v>
+      </c>
+      <c r="I11" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="32">
+      <c r="F12" s="20">
         <v>63</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G12" s="20">
         <v>63</v>
       </c>
-      <c r="H11" s="32">
-        <v>44</v>
-      </c>
-      <c r="I11" s="32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F12" s="34">
-        <v>63</v>
-      </c>
-      <c r="G12" s="34">
-        <v>63</v>
-      </c>
-      <c r="H12" s="34">
-        <v>44</v>
-      </c>
-      <c r="I12" s="35">
-        <v>19</v>
+      <c r="H12" s="20">
+        <v>55</v>
+      </c>
+      <c r="I12" s="21">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2323,808 +2541,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87853973-3129-467A-A6B0-78EC3A425272}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:P23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="26"/>
+    <col min="2" max="2" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="26"/>
+    <col min="4" max="4" width="20.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="26"/>
+    <col min="9" max="9" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="26"/>
+    <col min="12" max="12" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
+        <v>10136</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18">
-        <v>10058</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="24">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="K5" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" s="39">
+        <v>43885</v>
+      </c>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>43880</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="B6" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="24">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="O6" s="39">
+        <v>43885</v>
+      </c>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24">
+        <v>22</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24">
+        <v>23</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="24">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="D11" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:16" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="K11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:16" ht="345" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:16" ht="345" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="6" t="s">
+      <c r="L11" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>43885</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24">
+        <v>25</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-    </row>
-    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-    </row>
-    <row r="17" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-    </row>
-    <row r="18" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="4">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="4">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="4">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="4">
-        <v>17</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="4">
-        <v>18</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>43880</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="4">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="L12" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3144,68 +2994,891 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD1249-2A42-48B3-AFC5-D425ACEF2BEF}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="22.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33">
+        <v>10136</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="360" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="42">
+        <v>4</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="42">
+        <v>7</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="42">
+        <v>8</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="42">
+        <v>9</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="42">
+        <v>10</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="42">
+        <v>11</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="42">
+        <v>12</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="42">
+        <v>13</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="42">
+        <v>15</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="42">
+        <v>16</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="42">
+        <v>17</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="42">
+        <v>19</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F540B64C-38F6-488B-9B4E-826E5295F301}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="A1:M68"/>
+    <sheetView topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="D1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="36"/>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -3213,24 +3886,24 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="21">
+        <v>28</v>
+      </c>
+      <c r="B3" s="37">
         <v>43878</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3238,19 +3911,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="35"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -3259,69 +3932,69 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4">
         <v>10058</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>43878</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -3329,28 +4002,28 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4">
         <v>10058</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>43878</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -3358,61 +4031,61 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="4">
         <v>10058</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>43878</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="4">
         <v>10058</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>43878</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -3420,949 +4093,949 @@
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="4">
         <v>10058</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>43878</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="11" t="s">
-        <v>62</v>
+      <c r="H10" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="4">
         <v>10058</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>43878</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="11" t="s">
-        <v>59</v>
+      <c r="H11" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="4">
         <v>10058</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>43878</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
+      <c r="H12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="4">
         <v>10058</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>43878</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="4">
         <v>10058</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>43878</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="4">
         <v>10058</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>43878</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="12"/>
       <c r="L15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="4">
         <v>10058</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>43878</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="12"/>
       <c r="L16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="330" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="4">
         <v>10058</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>43878</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="4">
         <v>10058</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>43878</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="4">
         <v>10058</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>43878</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>78</v>
+      <c r="D19" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="4">
         <v>10058</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>43878</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>78</v>
+      <c r="D20" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="4">
         <v>10058</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>43878</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>78</v>
+      <c r="D21" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="4">
         <v>10058</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>43878</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="4">
         <v>10058</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>43878</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>88</v>
+      <c r="D23" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="4">
         <v>10058</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>43878</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="4">
         <v>10058</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>43878</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>93</v>
+      <c r="D25" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="4">
         <v>10058</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>43878</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="4">
         <v>10058</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>43878</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>98</v>
+      <c r="D27" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="4">
         <v>10058</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>43878</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" s="4">
         <v>10058</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>43878</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="4">
         <v>10058</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>43878</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>109</v>
+      <c r="D30" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="4">
         <v>10058</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>43878</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="4">
         <v>10058</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>43878</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>113</v>
+      <c r="D32" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="4">
         <v>10058</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>43878</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>113</v>
+      <c r="D33" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="4">
         <v>10058</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>43878</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="4">
         <v>10058</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>43880</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>120</v>
+      <c r="D35" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="4">
         <v>10058</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>43880</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>113</v>
+      <c r="D36" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="4">
         <v>10058</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>43880</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>113</v>
+      <c r="D37" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="4">
         <v>10058</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>43880</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>113</v>
+      <c r="D38" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>54</v>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="4">
         <v>10058</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>43880</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -4370,28 +5043,28 @@
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="4">
         <v>10058</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>43880</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -4399,28 +5072,28 @@
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="4">
         <v>10058</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>43880</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -4428,28 +5101,28 @@
     </row>
     <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="4">
         <v>10058</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>43880</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -4457,28 +5130,28 @@
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="4">
         <v>10058</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>43880</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -4486,28 +5159,28 @@
     </row>
     <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="4">
         <v>10058</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>43880</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -4515,28 +5188,28 @@
     </row>
     <row r="45" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="4">
         <v>10058</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>43880</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -4544,28 +5217,28 @@
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B46" s="4">
         <v>10058</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>43880</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -4573,28 +5246,28 @@
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="4">
         <v>10058</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>43880</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -4602,28 +5275,28 @@
     </row>
     <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="4">
         <v>10058</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>43880</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -4631,28 +5304,28 @@
     </row>
     <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="4">
         <v>10058</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>43880</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -4660,28 +5333,28 @@
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="4">
         <v>10058</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>43880</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -4689,578 +5362,578 @@
     </row>
     <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="4">
         <v>10058</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>43880</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="4">
         <v>10058</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>43880</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" s="4">
         <v>10058</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>43880</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" s="4">
         <v>10058</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>43880</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>54</v>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" s="4">
         <v>10058</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>43880</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" s="4">
         <v>10058</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>43880</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>187</v>
+      <c r="D56" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" s="4">
         <v>10058</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>43880</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="13" t="s">
-        <v>54</v>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B58" s="4">
         <v>10058</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>43880</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" s="4">
         <v>10058</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>43880</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" s="4">
         <v>10058</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>43880</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>200</v>
+      <c r="D60" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G60" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>54</v>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" s="4">
         <v>10058</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>43880</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>54</v>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B62" s="4">
         <v>10058</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>43880</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" s="4">
         <v>10058</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>43880</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B64" s="4">
         <v>10058</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>43880</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G64" s="13" t="s">
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" s="4">
         <v>10058</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>43880</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B66" s="4">
         <v>10058</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>43880</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" s="4">
         <v>10058</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>43880</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="H67" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>54</v>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="4">
         <v>10058</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>43880</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>192</v>
+      <c r="D68" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>54</v>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Mercedes-benz/Mercedes_benz_Test-Case.xlsx
+++ b/Mercedes-benz/Mercedes_benz_Test-Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\Mercedes-benz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89047FEA-864F-46E5-8C6E-29CEA1A6A3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57A94F-10FB-474E-94B1-AED7B1C0EAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" xr2:uid="{2DBA7348-0694-48DC-959A-28F2BD06F127}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1511,9 +1511,6 @@
     <t>Testing of Mercedes-Benz</t>
   </si>
   <si>
-    <t>Lead Dev.</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -1717,6 +1714,9 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>Lead Dev. :-&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1912,32 +1912,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1999,13 +1973,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2046,28 +2150,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2083,14 +2178,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2119,20 +2220,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2450,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DEB87A-C4C8-4A2C-AA7E-BB8C88E57263}">
-  <dimension ref="E9:I12"/>
+  <dimension ref="E7:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="E8:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,74 +2585,83 @@
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="14" t="s">
+      <c r="E9" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="15">
+        <v>63</v>
+      </c>
+      <c r="G11" s="15">
+        <v>63</v>
+      </c>
+      <c r="H11" s="15">
+        <v>55</v>
+      </c>
+      <c r="I11" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="F12" s="17">
         <v>63</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G12" s="17">
         <v>63</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H12" s="17">
         <v>55</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="20">
-        <v>63</v>
-      </c>
-      <c r="G12" s="20">
-        <v>63</v>
-      </c>
-      <c r="H12" s="20">
-        <v>55</v>
-      </c>
-      <c r="I12" s="21">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,98 +2671,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87853973-3129-467A-A6B0-78EC3A425272}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="26"/>
-    <col min="2" max="2" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="26"/>
-    <col min="4" max="4" width="20.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="26"/>
-    <col min="9" max="9" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" style="26"/>
-    <col min="12" max="12" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="26"/>
+    <col min="1" max="1" width="11.5703125" style="23"/>
+    <col min="2" max="2" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="23"/>
+    <col min="4" max="4" width="20.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="23"/>
+    <col min="9" max="9" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="23"/>
+    <col min="12" max="12" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="32" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="32" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33">
+      <c r="I3" s="31"/>
+      <c r="J3" s="32">
         <v>10136</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2690,19 +2818,19 @@
       <c r="A5" s="9">
         <v>43880</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>178</v>
       </c>
       <c r="G5" s="12"/>
@@ -2711,40 +2839,40 @@
       <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>331</v>
+      <c r="K5" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="O5" s="39">
+        <v>313</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="O5" s="24">
         <v>43885</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43880</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>218</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -2755,226 +2883,226 @@
       <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>331</v>
+      <c r="K6" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="O6" s="39">
+        <v>313</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="O6" s="24">
         <v>43885</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="24">
         <v>43885</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="24">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21">
         <v>20</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>43885</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>43885</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24">
-        <v>21</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+        <v>313</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="24">
         <v>43885</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="24">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21">
         <v>22</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>43885</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
+      <c r="E10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="L10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>43885</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="24">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="22" t="s">
+      <c r="K11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="L11" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <v>43885</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="24">
-        <v>24</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="21">
+        <v>25</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>43885</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24">
-        <v>25</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+        <v>313</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3003,96 +3131,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="22.42578125" style="25"/>
+    <col min="1" max="1" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="22.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="32" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="32" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33">
+      <c r="I3" s="31"/>
+      <c r="J3" s="32">
         <v>10136</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3145,660 +3273,660 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="26">
         <v>43880</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43" t="s">
+      <c r="E5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L5" s="43" t="s">
+      <c r="K5" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="M5" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="26">
         <v>43880</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L6" s="43" t="s">
+      <c r="K6" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="27">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="360" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="27">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="27">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="27">
+        <v>7</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="27">
+        <v>8</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="27">
+        <v>9</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="27">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="27">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="27">
+        <v>12</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="27">
+        <v>13</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="27">
+        <v>15</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="27">
+        <v>16</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M19" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>43880</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="42">
-        <v>3</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43" t="s">
+      <c r="B20" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="27">
+        <v>17</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="27">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" s="43" t="s">
+      <c r="K21" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="M21" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="M7" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" ht="360" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="42">
-        <v>4</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="42">
-        <v>5</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="405" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="42">
-        <v>6</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="405" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="42">
-        <v>7</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="405" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="42">
-        <v>8</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="42">
-        <v>9</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="42">
-        <v>10</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="42">
-        <v>11</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="42">
-        <v>12</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M16" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="42">
-        <v>13</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="42">
-        <v>15</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="42">
-        <v>16</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="42">
-        <v>17</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
-        <v>43880</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="42">
-        <v>19</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3846,15 +3974,15 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -3863,17 +3991,17 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3888,17 +4016,17 @@
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>43878</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3920,10 +4048,10 @@
       <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
